--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/84.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/84.xlsx
@@ -479,13 +479,13 @@
         <v>-12.03951656941897</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69282684455066</v>
+        <v>-10.69494779761102</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.036006187766512</v>
+        <v>-3.966394413557055</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.770556205409311</v>
+        <v>-6.852985344100818</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.79630139833844</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05040381976388</v>
+        <v>-11.05387328001694</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.082588601277374</v>
+        <v>-3.998797863090327</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.780336155632081</v>
+        <v>-6.849555160756286</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.41133297794747</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88461917223298</v>
+        <v>-11.88654374075071</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.831530601984435</v>
+        <v>-3.758802859698646</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.613553309731332</v>
+        <v>-6.683754237568667</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.028683024148096</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.7351868109514</v>
+        <v>-12.7449143919628</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.926214136135798</v>
+        <v>-3.835039339146017</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.954607798758296</v>
+        <v>-7.03390787707063</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.661023203117304</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.44732953172425</v>
+        <v>-13.4682117547568</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.679738442837463</v>
+        <v>-3.592046198403581</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.518778129460077</v>
+        <v>-6.586818827328528</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.350091300415539</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.13780449129404</v>
+        <v>-14.16000903691361</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.737108913889906</v>
+        <v>-3.638432227371817</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.691203757885609</v>
+        <v>-6.75780430244147</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.100214335291459</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.75149309469711</v>
+        <v>-14.78415839028721</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.557574165021316</v>
+        <v>-3.469240397748191</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.384084517824399</v>
+        <v>-6.427655701681664</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.938427013225135</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.66413134118815</v>
+        <v>-15.69836771311926</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.402482745558229</v>
+        <v>-3.309972533678593</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.176741717719984</v>
+        <v>-6.191326543085666</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.852661597862092</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.31573525362085</v>
+        <v>-16.35129394813898</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.393566887323014</v>
+        <v>-3.295872123518054</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.741147709872916</v>
+        <v>-5.76120511782644</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.8542519186295821</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.84681142609263</v>
+        <v>-16.90247989777565</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.245362019154675</v>
+        <v>-3.154017022227952</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.507947611656091</v>
+        <v>-5.531657772102457</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06364654409729081</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.47253185580724</v>
+        <v>-17.52069843796195</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.362799975644958</v>
+        <v>-3.287912003390285</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.911121894313166</v>
+        <v>-4.937424330722194</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.9154921906109349</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.36826793932962</v>
+        <v>-18.41122378495332</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.141553149922629</v>
+        <v>-3.064766793755906</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.265841564153013</v>
+        <v>-4.287928279047005</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.697005316916682</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.10120123701512</v>
+        <v>-19.12879981140548</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.025005470025584</v>
+        <v>-2.946451652975227</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.701209819497894</v>
+        <v>-3.745304695468826</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.428426102528546</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.85975617136189</v>
+        <v>-19.904911523863</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.952146804711378</v>
+        <v>-2.870372281161957</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.104279363732235</v>
+        <v>-3.148348055097485</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>3.114570122050318</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.71474900844081</v>
+        <v>-20.77662323167081</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.947525221808249</v>
+        <v>-2.852802410748361</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.493431790045822</v>
+        <v>-2.563148302678013</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.758903355803996</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.42757252896143</v>
+        <v>-21.49501098089916</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.868277512707281</v>
+        <v>-2.773593978555918</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.07320814573494</v>
+        <v>-2.14109173596929</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>4.366675901157929</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.33382173166571</v>
+        <v>-22.40737428903052</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.774091486063904</v>
+        <v>-2.674747092100886</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.849539243986892</v>
+        <v>-1.90307367030671</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>4.921220404219167</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.17619358880521</v>
+        <v>-23.25263954509804</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.785219943479371</v>
+        <v>-2.694686669328835</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.37424937392371</v>
+        <v>-1.449805053623312</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>5.412142001988482</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.97721995357053</v>
+        <v>-24.04854681945226</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.561904533908049</v>
+        <v>-2.47476216619352</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.141206383340986</v>
+        <v>-1.202164145372063</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>5.819027202010025</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.4264954178872</v>
+        <v>-24.50516706566313</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.401000131983236</v>
+        <v>-2.317052286162088</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7506368049666144</v>
+        <v>-0.8113981824550651</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.12052021969674</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.0892670646439</v>
+        <v>-25.16699606661523</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.188603702981914</v>
+        <v>-2.116491298929687</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6087031498594622</v>
+        <v>-0.638776169486907</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>6.302855317757682</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.65921428425276</v>
+        <v>-25.73439028716995</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.183157304999756</v>
+        <v>-2.112275577414651</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.230230859310845</v>
+        <v>-0.2796673948412026</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>6.354570754537836</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.09770169102785</v>
+        <v>-26.17219689419727</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.126572372117816</v>
+        <v>-2.065653886995264</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2741162584363108</v>
+        <v>-0.3143358127660932</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>6.275671228947355</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.37353032729733</v>
+        <v>-26.44933476075093</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.777819609019917</v>
+        <v>-1.722059491217005</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.255944142091995</v>
+        <v>-0.2913195443703388</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>6.070552801116849</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.29006689668133</v>
+        <v>-26.37095114363752</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.675765108368662</v>
+        <v>-1.628803018075391</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4154738522184271</v>
+        <v>-0.4490425167046128</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.753226188356222</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.20749374265857</v>
+        <v>-26.31080510438263</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.749042727373803</v>
+        <v>-1.706060697144416</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.37681228192681</v>
+        <v>-0.3935180603528525</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.341267259153637</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.37693432603619</v>
+        <v>-26.4630685864319</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.46624898599252</v>
+        <v>-1.422952740494932</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7122501730346736</v>
+        <v>-0.7253948450877666</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.857873324263167</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.29002761977281</v>
+        <v>-26.39612764200216</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.37515274281979</v>
+        <v>-1.341387693790978</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7859991149421166</v>
+        <v>-0.7936188351960012</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.330230489080927</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.10420856554019</v>
+        <v>-26.20050245294108</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.454806313308851</v>
+        <v>-1.421656602513601</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9283517237402041</v>
+        <v>-0.9309963689142328</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.780609472056806</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.7676316440851</v>
+        <v>-25.85879334877203</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.367218807297704</v>
+        <v>-1.336190049562813</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.412164682953349</v>
+        <v>-1.409768791533313</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.237400574518283</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.7827270692616</v>
+        <v>-25.88603843098566</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.198655408210481</v>
+        <v>-1.172588633252604</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.703926651781215</v>
+        <v>-1.711611833549308</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.718540641517948</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.43280909121079</v>
+        <v>-25.53075260876975</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.168503834765985</v>
+        <v>-1.147870365487425</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.204458481723244</v>
+        <v>-2.217210384691085</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.237782951643664</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.88611380144884</v>
+        <v>-24.96744318670164</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.188548150416668</v>
+        <v>-1.172261325681561</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.310047904141765</v>
+        <v>-2.314918240798887</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.806145282628834</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.47069503228087</v>
+        <v>-24.5599714453586</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.35581541152256</v>
+        <v>-1.340222478838065</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522221763994777</v>
+        <v>-2.516408781533051</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.418921383235037</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.82229873404438</v>
+        <v>-23.90307824257783</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.355186980986157</v>
+        <v>-1.34026175574659</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.716105676777899</v>
+        <v>-2.690863716899051</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.075180667495171</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.06320701528111</v>
+        <v>-23.13876269498071</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.335037926912741</v>
+        <v>-1.324681915364936</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.845771844122354</v>
+        <v>-2.839657738695267</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.761521227644391</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.68164494126184</v>
+        <v>-22.74732902461878</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.411405329388529</v>
+        <v>-1.398836718660472</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.15620343680252</v>
+        <v>-3.157224636424175</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.460766128168657</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.04080290176504</v>
+        <v>-22.13039353011097</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.324171315554108</v>
+        <v>-1.301547816243606</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.384624844482115</v>
+        <v>-3.388356150792007</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1623558344450347</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.5529444209738</v>
+        <v>-21.64174951114923</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.492603791612914</v>
+        <v>-1.467715323910793</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.615821820364156</v>
+        <v>-3.619500757462681</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.1552638546674076</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.10276558776104</v>
+        <v>-21.14604874095579</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.406718284971191</v>
+        <v>-1.370413329191085</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.619278188314372</v>
+        <v>-3.621660987431566</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.501366654393038</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.27290997213824</v>
+        <v>-20.35007600508737</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.133089155579116</v>
+        <v>-1.093131447306168</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.72871674776836</v>
+        <v>-3.739282236161633</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.8864748338352554</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.45526947506676</v>
+        <v>-19.5057664871273</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.140983814192677</v>
+        <v>-1.100921367496996</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.868424711392419</v>
+        <v>-3.875704031772418</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.319905118557313</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.02983509422488</v>
+        <v>-19.08246615164861</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.161996960253648</v>
+        <v>-1.117352207563362</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.093612320270107</v>
+        <v>-4.106599884689099</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.796059722768817</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.54404519728263</v>
+        <v>-18.58125352195881</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.150986333563756</v>
+        <v>-1.108750564596348</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.207057124393663</v>
+        <v>-4.21408769101967</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.318382424971917</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09198107246067</v>
+        <v>-18.11106965000391</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.114851577720592</v>
+        <v>-1.073008577838436</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.345979549847219</v>
+        <v>-4.33657927640686</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.878202418868475</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.32839869382268</v>
+        <v>-17.35959765149451</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.20813423546789</v>
+        <v>-1.159535607319403</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.650833821516811</v>
+        <v>-4.653779589656199</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.466121221144651</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.48230862267613</v>
+        <v>-16.52005373176883</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.133455740058685</v>
+        <v>-1.088208741437679</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.603190931475769</v>
+        <v>-4.593227689013215</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.077261424766374</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85425776305569</v>
+        <v>-15.86512437441433</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.08214700522196</v>
+        <v>-1.019932382118078</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.831520693035472</v>
+        <v>-4.832240769691767</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.692723208670364</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.96857656811576</v>
+        <v>-14.99833537247501</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.039282805718149</v>
+        <v>-0.9856567332784392</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954509785930647</v>
+        <v>-4.95073920271223</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.30896991087674</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.17553650808389</v>
+        <v>-14.19813382278871</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.039767220923293</v>
+        <v>-0.9883144707553095</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.137356887418193</v>
+        <v>-5.137880579531862</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.91510013063139</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.45659888213619</v>
+        <v>-13.50661147899158</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.986429179146101</v>
+        <v>-0.9310618304284414</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.036415232508484</v>
+        <v>-5.043236322289024</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.499081464232733</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.75896243291197</v>
+        <v>-12.80240269374082</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.982841888167468</v>
+        <v>-0.920470157429485</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.116854341168049</v>
+        <v>-5.122929169686611</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.0588444743643</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.39507496772904</v>
+        <v>-12.43172032338303</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.179933415146812</v>
+        <v>-1.118491237910592</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.286779339750812</v>
+        <v>-5.294058660130812</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.581228551580801</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.71926338734198</v>
+        <v>-11.74303900930255</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.269275289738751</v>
+        <v>-1.205607421019437</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.766808623442699</v>
+        <v>-5.769911499216188</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.064533152301351</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.29605469798319</v>
+        <v>-11.320720596537</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.283847022801592</v>
+        <v>-1.215924155658717</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.899983527948736</v>
+        <v>-5.9032042344478</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.503727624365364</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.52262690760822</v>
+        <v>-10.54331274609815</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.272705473083283</v>
+        <v>-1.204272006129581</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.355399282298177</v>
+        <v>-6.363176110186163</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.890477607816935</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.04893429849173</v>
+        <v>-10.08826357622827</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.475596890221512</v>
+        <v>-1.399596072225292</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.198200002077573</v>
+        <v>-6.215521118737176</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.225355462102023</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.483608661785995</v>
+        <v>-9.507960345071606</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.46442915589752</v>
+        <v>-1.391112259983854</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.422248580608031</v>
+        <v>-6.443196265154793</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.500183745159008</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.193862907595756</v>
+        <v>-9.224354880914136</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.542393819319998</v>
+        <v>-1.473960352366296</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.302859870994331</v>
+        <v>-6.331662937246128</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.713186715096114</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.558886219772042</v>
+        <v>-8.60764195555463</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.627048649494599</v>
+        <v>-1.547879494210682</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.716432625461615</v>
+        <v>-6.724994991520104</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.861721631180073</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.985037493916346</v>
+        <v>-8.03686992086674</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.54202723484043</v>
+        <v>-1.471302614889426</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.581555721586153</v>
+        <v>-6.597187931179175</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.941295218034211</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.523271972688668</v>
+        <v>-7.570967231941076</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.533962376289927</v>
+        <v>-1.450878622456333</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.646375712955539</v>
+        <v>-6.66800419725007</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.956052155818691</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.102838851532319</v>
+        <v>-7.168300365740949</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.675189047043626</v>
+        <v>-1.595810414914241</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.823501478101251</v>
+        <v>-6.84010251810456</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.903692812020543</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.673764810500431</v>
+        <v>-6.737118463951543</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.558706828660789</v>
+        <v>-1.483792671800433</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.00523573384725</v>
+        <v>-7.002224504193654</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.789223348575645</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.434660083701987</v>
+        <v>-6.490747509075941</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.716600000932005</v>
+        <v>-1.645809919466793</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.034942168995127</v>
+        <v>-7.040074351709084</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.61550129257369</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.298081180457101</v>
+        <v>-6.363608156179939</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.707435388942797</v>
+        <v>-1.637038076562836</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.088083826229694</v>
+        <v>-7.100848821500376</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.386661754952693</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.02265840557571</v>
+        <v>-6.090149226724807</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.634039939212081</v>
+        <v>-1.580976835794565</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.047366764391925</v>
+        <v>-7.050024501868796</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.112573961633444</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.925958656786721</v>
+        <v>-5.999118445066286</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.916768219079155</v>
+        <v>-1.856072303104913</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.083553889446456</v>
+        <v>-7.079730937016672</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.794688401238169</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.821586818532481</v>
+        <v>-5.90524663369111</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.8641633462611</v>
+        <v>-1.807905720950203</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.82250646308528</v>
+        <v>-6.823187262833049</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.445619821872803</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.557750731666017</v>
+        <v>-5.64811380587961</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.87728183370851</v>
+        <v>-1.824428207136461</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.729943881994277</v>
+        <v>-6.723319176756363</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.071186855324251</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.643649330610581</v>
+        <v>-5.747824784322196</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.958283911390269</v>
+        <v>-1.906215822988724</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.549047533630148</v>
+        <v>-6.53344150864281</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.678360295596917</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.715329688669032</v>
+        <v>-5.819649157711905</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.045635755950265</v>
+        <v>-1.993620036760087</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.381924287855514</v>
+        <v>-6.36930330791609</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.278108862350609</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.918797167132296</v>
+        <v>-6.017552407467436</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.906778792010918</v>
+        <v>-1.854632149792323</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.285093616038108</v>
+        <v>-6.25423505824016</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.871513810913578</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.068507650127434</v>
+        <v>-6.176322764029048</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.161188420831339</v>
+        <v>-2.122906527322132</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.139873792917683</v>
+        <v>-6.112956018275094</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.469145779646691</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.546900395964105</v>
+        <v>-6.655291571190754</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.146826164613966</v>
+        <v>-2.097193244540982</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.907145017603161</v>
+        <v>-5.871245923211148</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.075289888527344</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.015146607098438</v>
+        <v>-7.108128141880376</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.197768314971122</v>
+        <v>-2.151460839819937</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.960561613197402</v>
+        <v>-5.930606424295533</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.691740292410262</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.499601089150827</v>
+        <v>-7.594363177119241</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.150465824803966</v>
+        <v>-2.098188259556954</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.58978759671972</v>
+        <v>-5.557672177848966</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.326163801695029</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.898615202858113</v>
+        <v>-7.986071785840843</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.179766398563749</v>
+        <v>-2.141837997231268</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.428582071829547</v>
+        <v>-5.396571391381527</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.975608245088136</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.274482125141226</v>
+        <v>-8.369047828567014</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.447281422528738</v>
+        <v>-2.404849269018703</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.033980064179923</v>
+        <v>-5.004325998243414</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.643082936427887</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.184017495858777</v>
+        <v>-9.266957234361113</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.373375372987194</v>
+        <v>-2.327814159097987</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.03159726506273</v>
+        <v>-4.992752402531329</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.328003149812352</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.92281614521738</v>
+        <v>-9.994012088070686</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.463476601143952</v>
+        <v>-2.416972741450142</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.861580620360074</v>
+        <v>-4.8232463576395</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.023089248723375</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.67945960334925</v>
+        <v>-10.74378208721065</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.522431240840245</v>
+        <v>-2.496796511876145</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.536590386919909</v>
+        <v>-4.495611479025306</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.730397459836309</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.81796625846575</v>
+        <v>-11.88654374075071</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.607033701803479</v>
+        <v>-2.572168899335962</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.432126902545776</v>
+        <v>-4.387966565060634</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.44276903062124</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.63319777181435</v>
+        <v>-12.69801776318374</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.749831448898185</v>
+        <v>-2.714691708070992</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.069470113829964</v>
+        <v>-4.019588440002988</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.158796967818045</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.66381075921219</v>
+        <v>-13.73454847146603</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.845339798128577</v>
+        <v>-2.812150810424801</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.747569663860445</v>
+        <v>-3.71195860013095</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.878900749912681</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.66213812780232</v>
+        <v>-14.73051922554466</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.878685893466453</v>
+        <v>-2.848285566267965</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.300428244906975</v>
+        <v>-3.257092722500861</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.59956649195072</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.03144898971561</v>
+        <v>-16.08388366259673</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.78840137306991</v>
+        <v>-2.74661074239912</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.04985466081918</v>
+        <v>-3.006990461315369</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.327577010879871</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.45193766343721</v>
+        <v>-17.5143748556894</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.023355839867526</v>
+        <v>-2.993570850902599</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.778254838367572</v>
+        <v>-2.744162481767718</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.064974699221625</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.92325065679038</v>
+        <v>-18.98181252740142</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.222529042998705</v>
+        <v>-3.188043917313598</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.650159747364125</v>
+        <v>-2.623595464898262</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.81598842300225</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.55438139093251</v>
+        <v>-20.5995629280393</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.435593179444955</v>
+        <v>-3.391000795966036</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.706914880183007</v>
+        <v>-2.691701624280921</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.587100281691879</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.02941259829273</v>
+        <v>-22.07926808751403</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.440607531433336</v>
+        <v>-3.416766447958553</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.600408996565565</v>
+        <v>-2.575481251954919</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.378138211560138</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.02086969124484</v>
+        <v>-24.07100011882581</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.661304480436312</v>
+        <v>-3.61024449935358</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.570047946275603</v>
+        <v>-2.549938169110712</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.192217285269984</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.19233285596785</v>
+        <v>-26.23566837837396</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.464828291690529</v>
+        <v>-3.418625554962078</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.729211071922466</v>
+        <v>-2.701429205292324</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.027111084850971</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.36650612737909</v>
+        <v>-28.41261721798764</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.970518488952198</v>
+        <v>-3.914797648057812</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.944998407359796</v>
+        <v>-2.931670443066918</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.8771836989804085</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.40650947926832</v>
+        <v>-30.46562122659871</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.951573926740221</v>
+        <v>-3.89581380893731</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.278577191464134</v>
+        <v>-3.266113319158811</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.7402313033653345</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.67105891719599</v>
+        <v>-32.73822243077404</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.103235162858776</v>
+        <v>-4.058145271871871</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.362799975644958</v>
+        <v>-3.347809288891181</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.6051411611806111</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.17578665075513</v>
+        <v>-35.23324876792746</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.384981520012721</v>
+        <v>-4.328632248581932</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.783992450366127</v>
+        <v>-3.77840203705271</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4683172714035979</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.57741249943568</v>
+        <v>-37.63150989477769</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.237274159352367</v>
+        <v>-4.193218560289959</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.180086980539707</v>
+        <v>-4.161050772207838</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3186308119183505</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.20097906588916</v>
+        <v>-40.25065126287068</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.358377960638333</v>
+        <v>-4.31094454744276</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.430843856867287</v>
+        <v>-4.411153033393331</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1560489849979217</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.64236623830003</v>
+        <v>-42.68792745218924</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.513561026221312</v>
+        <v>-4.466022874603005</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.94399666674874</v>
+        <v>-4.914355693115072</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.03072014160583028</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.00682303921292</v>
+        <v>-45.05848526622637</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.601672224346129</v>
+        <v>-4.556922733233109</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.144426730952724</v>
+        <v>-5.13050961303197</v>
       </c>
     </row>
   </sheetData>
